--- a/N_uptake_NEON/data/NEON_no3sensor_locations.xlsx
+++ b/N_uptake_NEON/data/NEON_no3sensor_locations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torrensc/Documents/R_working/Modelscape/space-time-rivers/N_uptake_NEON/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CC37AB-75F9-7749-8E21-94BFBDD9AE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB636723-8506-D542-9D71-026E9A2DB3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="6180" windowWidth="14400" windowHeight="9660" activeTab="1" xr2:uid="{A66FB1EE-F6D3-844E-A266-EAF15830FFBA}"/>
+    <workbookView xWindow="9420" yWindow="960" windowWidth="19380" windowHeight="14380" firstSheet="1" activeTab="1" xr2:uid="{A66FB1EE-F6D3-844E-A266-EAF15830FFBA}"/>
   </bookViews>
   <sheets>
     <sheet name="NEON_no3sensor_locations" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="241">
   <si>
     <t>siteID</t>
   </si>
@@ -751,6 +751,12 @@
   </si>
   <si>
     <t>what's there looks good - AND- missing data, spikes, many 0s… ^ priority bc N well-studied here</t>
+  </si>
+  <si>
+    <t>calc 90% uptake (m)</t>
+  </si>
+  <si>
+    <t>K (d^-1)</t>
   </si>
 </sst>
 </file>
@@ -3569,25 +3575,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91305569-FDC5-9540-B8A6-370A2C965CC6}">
-  <dimension ref="A1:AE34"/>
+  <dimension ref="A1:AG34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="6" max="6" width="35.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="13" width="10.83203125" customWidth="1"/>
-    <col min="14" max="14" width="17.83203125" customWidth="1"/>
-    <col min="17" max="22" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="34" hidden="1" customWidth="1"/>
+    <col min="4" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="35.33203125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" hidden="1" customWidth="1"/>
+    <col min="9" max="13" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="17.83203125" hidden="1" customWidth="1"/>
+    <col min="15" max="16" width="0" hidden="1" customWidth="1"/>
+    <col min="17" max="22" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="0" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>199</v>
       </c>
@@ -3664,10 +3673,16 @@
         <v>152</v>
       </c>
       <c r="Z1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AB1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>182</v>
       </c>
@@ -3737,16 +3752,22 @@
       <c r="Y2" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="Z2" s="8">
+        <v>3.23</v>
+      </c>
+      <c r="AA2" s="8">
+        <v>7281</v>
+      </c>
+      <c r="AB2" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
       <c r="AC2" s="8"/>
       <c r="AD2" s="8"/>
       <c r="AE2" s="8"/>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>182</v>
       </c>
@@ -3816,16 +3837,22 @@
       <c r="Y3" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="Z3" s="8" t="s">
+      <c r="Z3" s="8">
+        <v>1.52</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>56245</v>
+      </c>
+      <c r="AB3" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
       <c r="AC3" s="8"/>
       <c r="AD3" s="8"/>
       <c r="AE3" s="8"/>
-    </row>
-    <row r="4" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+    </row>
+    <row r="4" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>182</v>
       </c>
@@ -3895,16 +3922,22 @@
       <c r="Y4" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="Z4" s="9" t="s">
+      <c r="Z4" s="8">
+        <v>3.64</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>8458</v>
+      </c>
+      <c r="AB4" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
       <c r="AC4" s="9"/>
       <c r="AD4" s="9"/>
       <c r="AE4" s="9"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>182</v>
       </c>
@@ -3974,16 +4007,22 @@
       <c r="Y5" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="Z5" s="8" t="s">
+      <c r="Z5" s="8">
+        <v>2.54</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>3974</v>
+      </c>
+      <c r="AB5" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
       <c r="AC5" s="8"/>
       <c r="AD5" s="8"/>
       <c r="AE5" s="8"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="8" t="s">
         <v>193</v>
@@ -4047,14 +4086,20 @@
       <c r="Y6" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
+      <c r="Z6" s="8">
+        <v>1.62</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>7413</v>
+      </c>
       <c r="AB6" s="8"/>
       <c r="AC6" s="8"/>
       <c r="AD6" s="8"/>
       <c r="AE6" s="8"/>
-    </row>
-    <row r="7" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+    </row>
+    <row r="7" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>76</v>
       </c>
@@ -4121,8 +4166,10 @@
       <c r="AC7" s="9"/>
       <c r="AD7" s="9"/>
       <c r="AE7" s="9"/>
-    </row>
-    <row r="8" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+    </row>
+    <row r="8" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
         <v>76</v>
       </c>
@@ -4189,8 +4236,10 @@
       <c r="AC8" s="8"/>
       <c r="AD8" s="8"/>
       <c r="AE8" s="8"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="8" t="s">
         <v>88</v>
@@ -4264,8 +4313,10 @@
       <c r="AC9" s="8"/>
       <c r="AD9" s="8"/>
       <c r="AE9" s="8"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="8" t="s">
         <v>19</v>
@@ -4339,8 +4390,10 @@
       <c r="AC10" s="8"/>
       <c r="AD10" s="8"/>
       <c r="AE10" s="8"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="8" t="s">
         <v>117</v>
@@ -4408,16 +4461,18 @@
       <c r="Y11" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="Z11" s="8" t="s">
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
       <c r="AC11" s="8"/>
       <c r="AD11" s="8"/>
       <c r="AE11" s="8"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="8" t="s">
         <v>65</v>
@@ -4491,8 +4546,10 @@
       <c r="AC12" s="8"/>
       <c r="AD12" s="8"/>
       <c r="AE12" s="8"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="8" t="s">
         <v>103</v>
@@ -4566,8 +4623,10 @@
       <c r="AC13" s="8"/>
       <c r="AD13" s="8"/>
       <c r="AE13" s="8"/>
-    </row>
-    <row r="14" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+    </row>
+    <row r="14" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9" t="s">
         <v>45</v>
@@ -4641,8 +4700,10 @@
       <c r="AC14" s="9"/>
       <c r="AD14" s="9"/>
       <c r="AE14" s="9"/>
-    </row>
-    <row r="15" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+    </row>
+    <row r="15" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9" t="s">
         <v>98</v>
@@ -4710,16 +4771,18 @@
       <c r="Y15" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="Z15" s="9" t="s">
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
       <c r="AD15" s="9"/>
       <c r="AE15" s="9"/>
-    </row>
-    <row r="16" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+    </row>
+    <row r="16" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="9" t="s">
         <v>68</v>
@@ -4793,8 +4856,10 @@
       <c r="AC16" s="9"/>
       <c r="AD16" s="9"/>
       <c r="AE16" s="9"/>
-    </row>
-    <row r="17" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="9"/>
+    </row>
+    <row r="17" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="5" t="s">
         <v>85</v>
@@ -4862,8 +4927,10 @@
       <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="6" t="s">
         <v>11</v>
@@ -4925,14 +4992,16 @@
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
       <c r="Y18" s="6"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
       <c r="AB18" s="7"/>
       <c r="AC18" s="7"/>
       <c r="AD18" s="7"/>
       <c r="AE18" s="7"/>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="7"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="6" t="s">
         <v>110</v>
@@ -5000,8 +5069,10 @@
       <c r="AC19" s="6"/>
       <c r="AD19" s="6"/>
       <c r="AE19" s="6"/>
-    </row>
-    <row r="20" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="6"/>
+    </row>
+    <row r="20" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="6" t="s">
         <v>34</v>
@@ -5069,8 +5140,10 @@
       <c r="AC20" s="6"/>
       <c r="AD20" s="6"/>
       <c r="AE20" s="6"/>
-    </row>
-    <row r="21" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="6"/>
+    </row>
+    <row r="21" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="6" t="s">
         <v>59</v>
@@ -5132,14 +5205,16 @@
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
       <c r="Y21" s="6"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
       <c r="AB21" s="7"/>
       <c r="AC21" s="7"/>
       <c r="AD21" s="7"/>
       <c r="AE21" s="7"/>
-    </row>
-    <row r="22" spans="1:31" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7"/>
+    </row>
+    <row r="22" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="3" t="s">
         <v>56</v>
@@ -5205,14 +5280,16 @@
       <c r="Y22" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
       <c r="AB22" s="12"/>
       <c r="AC22" s="12"/>
       <c r="AD22" s="12"/>
       <c r="AE22" s="12"/>
-    </row>
-    <row r="23" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF22" s="12"/>
+      <c r="AG22" s="12"/>
+    </row>
+    <row r="23" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="13" t="s">
         <v>51</v>
@@ -5278,8 +5355,10 @@
       <c r="AC23" s="13"/>
       <c r="AD23" s="13"/>
       <c r="AE23" s="13"/>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="13"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>51</v>
@@ -5345,8 +5424,10 @@
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
       <c r="AE24" s="4"/>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>22</v>
@@ -5412,8 +5493,10 @@
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
       <c r="AE25" s="4"/>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="4"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
       <c r="B26" s="1" t="s">
         <v>120</v>
@@ -5461,8 +5544,10 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
       <c r="B27" s="1" t="s">
         <v>11</v>
@@ -5510,8 +5595,10 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
       <c r="B28" s="1" t="s">
         <v>45</v>
@@ -5559,8 +5646,10 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
       <c r="B29" s="1" t="s">
         <v>88</v>
@@ -5608,17 +5697,19 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="L31" s="17"/>
       <c r="P31" s="18"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
       <c r="H32" t="s">
         <v>237</v>
@@ -5635,7 +5726,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:AE32">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:AG32">
     <sortCondition ref="O2:O32"/>
     <sortCondition ref="B2:B32"/>
   </sortState>

--- a/N_uptake_NEON/data/NEON_no3sensor_locations.xlsx
+++ b/N_uptake_NEON/data/NEON_no3sensor_locations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torrensc/Documents/R_working/Modelscape/space-time-rivers/N_uptake_NEON/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB636723-8506-D542-9D71-026E9A2DB3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DD1E52-7C68-D54B-8EBE-86CB365E2F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9420" yWindow="960" windowWidth="19380" windowHeight="14380" firstSheet="1" activeTab="1" xr2:uid="{A66FB1EE-F6D3-844E-A266-EAF15830FFBA}"/>
+    <workbookView xWindow="4480" yWindow="680" windowWidth="19380" windowHeight="14380" firstSheet="1" activeTab="1" xr2:uid="{A66FB1EE-F6D3-844E-A266-EAF15830FFBA}"/>
   </bookViews>
   <sheets>
     <sheet name="NEON_no3sensor_locations" sheetId="1" r:id="rId1"/>
@@ -3577,22 +3577,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91305569-FDC5-9540-B8A6-370A2C965CC6}">
   <dimension ref="A1:AG34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="101" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="34" hidden="1" customWidth="1"/>
-    <col min="4" max="5" width="0" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="35.33203125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="12" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" hidden="1" customWidth="1"/>
-    <col min="9" max="13" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="17.83203125" hidden="1" customWidth="1"/>
-    <col min="15" max="16" width="0" hidden="1" customWidth="1"/>
-    <col min="17" max="22" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="35.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="13" width="10.83203125" customWidth="1"/>
+    <col min="14" max="14" width="17.83203125" customWidth="1"/>
+    <col min="15" max="23" width="10.83203125" customWidth="1"/>
     <col min="24" max="24" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>

--- a/N_uptake_NEON/data/NEON_no3sensor_locations.xlsx
+++ b/N_uptake_NEON/data/NEON_no3sensor_locations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torrensc/Documents/R_working/Modelscape/space-time-rivers/N_uptake_NEON/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DD1E52-7C68-D54B-8EBE-86CB365E2F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E16D9E2-EE3B-3443-9A0C-EE809FBC5409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4480" yWindow="680" windowWidth="19380" windowHeight="14380" firstSheet="1" activeTab="1" xr2:uid="{A66FB1EE-F6D3-844E-A266-EAF15830FFBA}"/>
+    <workbookView xWindow="4480" yWindow="760" windowWidth="19380" windowHeight="14380" firstSheet="1" activeTab="1" xr2:uid="{A66FB1EE-F6D3-844E-A266-EAF15830FFBA}"/>
   </bookViews>
   <sheets>
     <sheet name="NEON_no3sensor_locations" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="244">
   <si>
     <t>siteID</t>
   </si>
@@ -757,6 +757,15 @@
   </si>
   <si>
     <t>K (d^-1)</t>
+  </si>
+  <si>
+    <t>Lat_locationReferenceLatitude</t>
+  </si>
+  <si>
+    <t>Long_locationReferenceLongitude</t>
+  </si>
+  <si>
+    <t>Elev_locationReferenceElevation</t>
   </si>
 </sst>
 </file>
@@ -3577,8 +3586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91305569-FDC5-9540-B8A6-370A2C965CC6}">
   <dimension ref="A1:AG34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="101" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="B5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3626,13 +3635,13 @@
         <v>6</v>
       </c>
       <c r="K1" t="s">
-        <v>7</v>
+        <v>241</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>242</v>
       </c>
       <c r="M1" t="s">
-        <v>9</v>
+        <v>243</v>
       </c>
       <c r="N1" t="s">
         <v>10</v>
@@ -4021,7 +4030,9 @@
       <c r="AG5" s="8"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+      <c r="A6" s="8" t="s">
+        <v>182</v>
+      </c>
       <c r="B6" s="8" t="s">
         <v>193</v>
       </c>
@@ -4168,6 +4179,9 @@
       <c r="AG7" s="9"/>
     </row>
     <row r="8" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>182</v>
+      </c>
       <c r="B8" s="8" t="s">
         <v>76</v>
       </c>
